--- a/repository/template/import_data_sample.xlsx
+++ b/repository/template/import_data_sample.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="KabKota" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
@@ -435,7 +435,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
